--- a/biology/Histoire de la zoologie et de la botanique/Horace_Donisthorpe/Horace_Donisthorpe.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Horace_Donisthorpe/Horace_Donisthorpe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Horace St. John Kelly Donisthorpe est un entomologiste (coléoptériste et myrmécologue) britannique, né le 17 mars 1870 à Leicester et mort le 22 avril 1951 à Londres.
 Myrmécologue excentrique, il est connu pour son acharnement à faire renommer le genre Lasius en Donisthorpea, ainsi que pour ses nombreuses revendications de découvertes de nouvelles espèces de coléoptères et des fourmis.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études à Mill Hill House, Leicester et à Oakham Grammar School, il rejoignit l'université de Heidelberg pour étudier la médecine. Cependant, sa nature trop sensible l'obligea à abandonner cette carrière. Sa fortune personnelle lui permit alors de se consacrer à l'étude des coléoptères et des fourmis.
 La plupart de ses découvertes furent faites dans les anciennes forêts de Windsor où il obtint l'autorisation de prospecter.
@@ -524,7 +538,7 @@
 Gymnetron lloydi
 Xyleborus sampsoni
 toutes nommées en l'honneur de ses collègues.
-Les espèces décrites par Donisthorpe et considérées comme ayant déjà été décrites[2] sont :
+Les espèces décrites par Donisthorpe et considérées comme ayant déjà été décrites sont :
 Aenictus bidentatus
 Rhytidoponera gagates
 Diacamma rugosum
@@ -532,7 +546,7 @@
 Leptogenys violacea
 Polyrhachis bryanti
 Polyrhachis hosei.
-Donisthorpe était membre de la Zoological Society of London et de la Royal Entomological Society. Il habitait 58, Kensington Mansions et était connu pour sa prodigalité qui conduisit à la dissipation d'une grande partie de sa fortune personnelle[3]. Il était l'associé d'Auguste-Henri Forel (1848-1931), avec qui il résida en Suisse en 1914[4].
+Donisthorpe était membre de la Zoological Society of London et de la Royal Entomological Society. Il habitait 58, Kensington Mansions et était connu pour sa prodigalité qui conduisit à la dissipation d'une grande partie de sa fortune personnelle. Il était l'associé d'Auguste-Henri Forel (1848-1931), avec qui il résida en Suisse en 1914.
 </t>
         </is>
       </c>
@@ -561,7 +575,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>The Coleoptera of the Isle of Wight, 1906.
 British Ants: their life histories and classification. Publié en 1915, révisé en 1927, ce fut l’un des premiers ouvrages importants consacrés aux fourmis de la Grande-Bretagne.
@@ -595,7 +611,9 @@
           <t>Sites anglais étudiés par Horace Donisthorpe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Aviemore (Morayshire)
 Chobham common à Chobham (Surrey)
